--- a/simulation_data/one_step_algorithm/1s_error_level_8_percent_water_60.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_8_percent_water_60.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.79146397264476</v>
+        <v>90.18279677498462</v>
       </c>
       <c r="D2" t="n">
-        <v>1.841745364681477</v>
+        <v>2.188138023015896</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.09090225713162</v>
+        <v>88.83753746642283</v>
       </c>
       <c r="D3" t="n">
-        <v>2.070183082119913</v>
+        <v>2.241485419370739</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.1874685589563</v>
+        <v>87.9103572190561</v>
       </c>
       <c r="D4" t="n">
-        <v>1.972040805744164</v>
+        <v>2.328940010590822</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.14759921386492</v>
+        <v>86.88711880463781</v>
       </c>
       <c r="D5" t="n">
-        <v>1.885333864245512</v>
+        <v>1.924965242480305</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.68864496655064</v>
+        <v>86.10095049812124</v>
       </c>
       <c r="D6" t="n">
-        <v>2.047928541285486</v>
+        <v>2.088121288749449</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.78614786359927</v>
+        <v>84.99584861361829</v>
       </c>
       <c r="D7" t="n">
-        <v>1.920399252261224</v>
+        <v>1.929677654226477</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.13764766729129</v>
+        <v>84.07316129125209</v>
       </c>
       <c r="D8" t="n">
-        <v>1.950343757702298</v>
+        <v>2.049607820192781</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.17764413746767</v>
+        <v>83.18159517712424</v>
       </c>
       <c r="D9" t="n">
-        <v>2.122522084815393</v>
+        <v>1.876833598301519</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.71363541129581</v>
+        <v>82.10985602416841</v>
       </c>
       <c r="D10" t="n">
-        <v>2.239956713332414</v>
+        <v>2.096908190041024</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.70302788677759</v>
+        <v>81.19598699579183</v>
       </c>
       <c r="D11" t="n">
-        <v>1.958622398626036</v>
+        <v>1.864064252710802</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.92519905587606</v>
+        <v>79.76662813709261</v>
       </c>
       <c r="D12" t="n">
-        <v>2.06727752048312</v>
+        <v>2.196111705076426</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.13166674152494</v>
+        <v>79.10781233195824</v>
       </c>
       <c r="D13" t="n">
-        <v>2.091192797856848</v>
+        <v>2.175575083639833</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.23647853440974</v>
+        <v>78.23842792485073</v>
       </c>
       <c r="D14" t="n">
-        <v>2.260033487087173</v>
+        <v>1.923433054093196</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.83565881426389</v>
+        <v>77.03098862746951</v>
       </c>
       <c r="D15" t="n">
-        <v>1.995245527237924</v>
+        <v>2.158582597878389</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.80722972348939</v>
+        <v>75.9578727695056</v>
       </c>
       <c r="D16" t="n">
-        <v>2.19548608222407</v>
+        <v>2.459044293536775</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.89695986683428</v>
+        <v>74.49350574806911</v>
       </c>
       <c r="D17" t="n">
-        <v>2.083219673310894</v>
+        <v>2.297973836707405</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.87271261283864</v>
+        <v>74.01028950866663</v>
       </c>
       <c r="D18" t="n">
-        <v>2.381276689802498</v>
+        <v>2.021486996912409</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.02402450625038</v>
+        <v>73.1008404029249</v>
       </c>
       <c r="D19" t="n">
-        <v>2.035045861257709</v>
+        <v>2.010155485342361</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.91093609376156</v>
+        <v>71.91665446570724</v>
       </c>
       <c r="D20" t="n">
-        <v>2.079331348386844</v>
+        <v>2.265729480106193</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.38996672408166</v>
+        <v>71.1096072481685</v>
       </c>
       <c r="D21" t="n">
-        <v>2.348090007010247</v>
+        <v>2.178887384003324</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.96166847729302</v>
+        <v>70.08364597852133</v>
       </c>
       <c r="D22" t="n">
-        <v>2.352440865928053</v>
+        <v>1.876620384842003</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.85075812909128</v>
+        <v>69.42928538249143</v>
       </c>
       <c r="D23" t="n">
-        <v>2.088374734703331</v>
+        <v>2.096092966164172</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.4877539412346</v>
+        <v>68.16798806890411</v>
       </c>
       <c r="D24" t="n">
-        <v>2.295035013244199</v>
+        <v>2.042965348543587</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.05962823674358</v>
+        <v>66.82108487223594</v>
       </c>
       <c r="D25" t="n">
-        <v>2.126088496814161</v>
+        <v>2.420182931870548</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.35931167263284</v>
+        <v>66.36747825370573</v>
       </c>
       <c r="D26" t="n">
-        <v>2.072924138050745</v>
+        <v>2.106391216252137</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.92019160312866</v>
+        <v>64.65279015802204</v>
       </c>
       <c r="D27" t="n">
-        <v>2.252411454111403</v>
+        <v>2.258289027099472</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.02954203476089</v>
+        <v>64.01623214264768</v>
       </c>
       <c r="D28" t="n">
-        <v>2.133520245341164</v>
+        <v>2.511424910126085</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.40032469758843</v>
+        <v>63.12319291043873</v>
       </c>
       <c r="D29" t="n">
-        <v>2.313192147175799</v>
+        <v>2.260158882376056</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.04825049030861</v>
+        <v>62.07246321110768</v>
       </c>
       <c r="D30" t="n">
-        <v>2.200881334871411</v>
+        <v>1.922492563015734</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.76648628551127</v>
+        <v>60.89503436288678</v>
       </c>
       <c r="D31" t="n">
-        <v>2.468475734430294</v>
+        <v>2.261040617206425</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.88616890285409</v>
+        <v>59.78422128180315</v>
       </c>
       <c r="D32" t="n">
-        <v>2.328720420325952</v>
+        <v>2.332382446619189</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.70441758761269</v>
+        <v>59.23895294630854</v>
       </c>
       <c r="D33" t="n">
-        <v>2.219978076044838</v>
+        <v>2.536144660725084</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.10003449846505</v>
+        <v>57.99531448970771</v>
       </c>
       <c r="D34" t="n">
-        <v>2.334414297425243</v>
+        <v>2.129252307252928</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.14516672796739</v>
+        <v>56.97310178970113</v>
       </c>
       <c r="D35" t="n">
-        <v>2.098917060563204</v>
+        <v>2.155005494349762</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.87559924489723</v>
+        <v>56.19650557642153</v>
       </c>
       <c r="D36" t="n">
-        <v>2.278828219251341</v>
+        <v>2.510659438529516</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.85129615423218</v>
+        <v>55.02456518255783</v>
       </c>
       <c r="D37" t="n">
-        <v>2.364139603072847</v>
+        <v>2.427954918663271</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.85566528001297</v>
+        <v>53.98019919517895</v>
       </c>
       <c r="D38" t="n">
-        <v>2.507382318544241</v>
+        <v>2.276642886131132</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.85136496413006</v>
+        <v>52.94306939904735</v>
       </c>
       <c r="D39" t="n">
-        <v>2.289097782551917</v>
+        <v>2.377177393764088</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.84510433246811</v>
+        <v>51.59415085849474</v>
       </c>
       <c r="D40" t="n">
-        <v>2.386814733048959</v>
+        <v>2.259995997351192</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.89360534202011</v>
+        <v>50.82600137961819</v>
       </c>
       <c r="D41" t="n">
-        <v>2.595452914621109</v>
+        <v>2.418115899805124</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.13865181039776</v>
+        <v>50.27641798371388</v>
       </c>
       <c r="D42" t="n">
-        <v>2.714818584891932</v>
+        <v>2.269514177328095</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.88523502931961</v>
+        <v>48.72503291138698</v>
       </c>
       <c r="D43" t="n">
-        <v>2.82385450588085</v>
+        <v>2.745787900490597</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.73807796218662</v>
+        <v>48.23850097348672</v>
       </c>
       <c r="D44" t="n">
-        <v>2.570194788900412</v>
+        <v>2.244579261443271</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.96905126805937</v>
+        <v>46.47943059300376</v>
       </c>
       <c r="D45" t="n">
-        <v>2.591744472757496</v>
+        <v>2.31136081666624</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.95800722511201</v>
+        <v>45.99679450945717</v>
       </c>
       <c r="D46" t="n">
-        <v>2.491896865658809</v>
+        <v>2.395297510983931</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.12259572735665</v>
+        <v>45.04500977981849</v>
       </c>
       <c r="D47" t="n">
-        <v>2.403816739536747</v>
+        <v>2.585873662626304</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.75645660496388</v>
+        <v>43.82207942564823</v>
       </c>
       <c r="D48" t="n">
-        <v>2.652639847400647</v>
+        <v>2.754340505502872</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.94235892461727</v>
+        <v>42.93759841728863</v>
       </c>
       <c r="D49" t="n">
-        <v>2.303303855912025</v>
+        <v>2.492453605588281</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.11102980010514</v>
+        <v>41.88125810796377</v>
       </c>
       <c r="D50" t="n">
-        <v>2.945578033320083</v>
+        <v>2.878674431643418</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.86133349671608</v>
+        <v>40.90317618066068</v>
       </c>
       <c r="D51" t="n">
-        <v>2.816727183259537</v>
+        <v>2.782506624734961</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.1896718576826</v>
+        <v>40.08567428723574</v>
       </c>
       <c r="D52" t="n">
-        <v>2.59156340240068</v>
+        <v>2.761127334731775</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.9391661594378</v>
+        <v>38.65525235530273</v>
       </c>
       <c r="D53" t="n">
-        <v>2.718157492450973</v>
+        <v>2.696984850278731</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.32215361006188</v>
+        <v>38.23235226530638</v>
       </c>
       <c r="D54" t="n">
-        <v>2.335285796042176</v>
+        <v>2.64492349792299</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.03961961059932</v>
+        <v>36.84727685342888</v>
       </c>
       <c r="D55" t="n">
-        <v>2.935705826714489</v>
+        <v>2.740534528652139</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.50804339003239</v>
+        <v>36.18773294812474</v>
       </c>
       <c r="D56" t="n">
-        <v>2.80598850121176</v>
+        <v>2.61991095878145</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.78406321183653</v>
+        <v>35.19107276976349</v>
       </c>
       <c r="D57" t="n">
-        <v>2.779685608151634</v>
+        <v>3.037075468395253</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.20721740293495</v>
+        <v>33.95877077830923</v>
       </c>
       <c r="D58" t="n">
-        <v>2.619711502711516</v>
+        <v>2.688298424312928</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.6427776882582</v>
+        <v>33.07239335067479</v>
       </c>
       <c r="D59" t="n">
-        <v>2.509878755495706</v>
+        <v>2.863488843522798</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.0405302318308</v>
+        <v>32.4161147198437</v>
       </c>
       <c r="D60" t="n">
-        <v>2.775911701205057</v>
+        <v>2.840428446189516</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.93137581967328</v>
+        <v>31.71126935924236</v>
       </c>
       <c r="D61" t="n">
-        <v>2.825748335156663</v>
+        <v>2.592750772480839</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.00467515090896</v>
+        <v>29.68461781521467</v>
       </c>
       <c r="D62" t="n">
-        <v>3.089770340177487</v>
+        <v>2.718772385662786</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.4997406223575</v>
+        <v>29.12073834221292</v>
       </c>
       <c r="D63" t="n">
-        <v>2.782961352010297</v>
+        <v>2.385358974772893</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.30212575025938</v>
+        <v>28.35238877742709</v>
       </c>
       <c r="D64" t="n">
-        <v>2.865196918432542</v>
+        <v>3.039398940951481</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.19963139495611</v>
+        <v>26.43094339937977</v>
       </c>
       <c r="D65" t="n">
-        <v>2.762385024941843</v>
+        <v>2.931365655141862</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.1324535420955</v>
+        <v>26.10938912232998</v>
       </c>
       <c r="D66" t="n">
-        <v>2.930563330620015</v>
+        <v>2.88298858859475</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.78143314147335</v>
+        <v>24.97874393508087</v>
       </c>
       <c r="D67" t="n">
-        <v>3.039036470737303</v>
+        <v>3.072994991875665</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.85246976571377</v>
+        <v>24.26833366864329</v>
       </c>
       <c r="D68" t="n">
-        <v>2.982425316777342</v>
+        <v>3.169043296602729</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.07441624522432</v>
+        <v>23.24977860803334</v>
       </c>
       <c r="D69" t="n">
-        <v>2.503474046538706</v>
+        <v>2.803987775919027</v>
       </c>
     </row>
   </sheetData>
